--- a/Documents/TimeReports/ProjectC4_TimeReport_Emil.xlsx
+++ b/Documents/TimeReports/ProjectC4_TimeReport_Emil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\ProjectC4\Dokument\Tidsrapportering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\ProjectC4\Documents\TimeReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>Tidrapport sammanfattning</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Testmall och skisser</t>
+  </si>
+  <si>
+    <t>Grundstruktur i Android Studio. Finslip av dokumentation.</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
       </c>
       <c r="D10" s="17">
         <f>Mars!C42</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>4</v>
@@ -959,7 +962,7 @@
       </c>
       <c r="D16" s="19">
         <f>SUM(D10:D12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -982,7 +985,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="C8" s="28" t="str">
         <f>SUM(C11:C41) &amp; " h"</f>
-        <v>8 h</v>
+        <v>10 h</v>
       </c>
       <c r="D8" s="22"/>
     </row>
@@ -1235,8 +1238,12 @@
       <c r="B33" s="32">
         <v>42086</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="35">
+        <v>2</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="32">
@@ -1300,7 +1307,7 @@
       </c>
       <c r="C42" s="40">
         <f>SUM(C11:C41)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>13</v>

--- a/Documents/TimeReports/ProjectC4_TimeReport_Emil.xlsx
+++ b/Documents/TimeReports/ProjectC4_TimeReport_Emil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\ProjectC4\Documents\TimeReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ProjectC4\Documents\TimeReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Tidrapport sammanfattning</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Grundstruktur i Android Studio. Finslip av dokumentation.</t>
+  </si>
+  <si>
+    <t>Handledningsmöte, Börjat på UI</t>
+  </si>
+  <si>
+    <t>Updaterat UI och metoder för vinst samt newGame</t>
   </si>
 </sst>
 </file>
@@ -895,7 +901,7 @@
       </c>
       <c r="D10" s="17">
         <f>Mars!C42</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>4</v>
@@ -962,7 +968,7 @@
       </c>
       <c r="D16" s="19">
         <f>SUM(D10:D12)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -984,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,7 +1063,7 @@
       </c>
       <c r="C8" s="28" t="str">
         <f>SUM(C11:C41) &amp; " h"</f>
-        <v>10 h</v>
+        <v>18 h</v>
       </c>
       <c r="D8" s="22"/>
     </row>
@@ -1249,15 +1255,23 @@
       <c r="B34" s="32">
         <v>42087</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
+      <c r="C34" s="35">
+        <v>5</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="32">
         <v>42088</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
+      <c r="C35" s="35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="32">
@@ -1307,7 +1321,7 @@
       </c>
       <c r="C42" s="40">
         <f>SUM(C11:C41)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>13</v>
